--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_8_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_8_square_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.89000000000045</v>
+        <v>24.52000000000039</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.909868929672598e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>2.433365533425001e-16</v>
+        <v>5.598230269377345e-09</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>54.93989020716174</v>
+        <v>34.42829519000485</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[42.357503233119246, 67.52227718120423]</t>
+          <t>[22.134984907096815, 46.72160547291288]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>1.083992438033476e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>1.083992438033476e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>1.779921363295118</v>
+        <v>1.415131825941348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.54092132158058, 2.0189214050096567]</t>
+          <t>[1.0126054398958093, 1.8176582119868865]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.264255780763506e-11</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.264255780763506e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>66.04494868614306</v>
+        <v>57.34599405497261</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[58.54775445571144, 73.54214291657468]</t>
+          <t>[50.12737150612605, 64.56461660381916]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.8390790790794</v>
+        <v>18.99747747747778</v>
       </c>
       <c r="X2" t="n">
-        <v>16.89231231231262</v>
+        <v>17.42662662662691</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.78584584584619</v>
+        <v>20.56832832832866</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.34000000000052</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,30 +661,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.433365533425001e-16</v>
+        <v>5.255493607693049e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.31080210261631</v>
+        <v>56.50628849184892</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[35.092523546851695, 55.52908065838092]</t>
+          <t>[43.97825884729704, 69.0343181364008]</t>
         </is>
       </c>
       <c r="M3" t="n">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="N3" t="n">
         <v>4.440892098500626e-16</v>
       </c>
-      <c r="N3" t="n">
-        <v>8.881784197001252e-16</v>
-      </c>
       <c r="O3" t="n">
-        <v>1.628973968528041</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.3773949772495788, 1.8805529598065034]</t>
+          <t>[2.3459740936716575, 2.7988162779728882]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>61.95146934202193</v>
+        <v>67.64898558371334</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.396478226816754, 68.5064604572271]</t>
+          <t>[61.05051838888696, 74.24745277853972]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.77037037037076</v>
+        <v>15.2490490490494</v>
       </c>
       <c r="X3" t="n">
-        <v>17.75575575575612</v>
+        <v>14.31859859859893</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.78498498498539</v>
+        <v>16.17949949949987</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_8_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_8_square_01_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.52000000000039</v>
+        <v>24.49000000000039</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.909868929672598e-09</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.598230269377345e-09</v>
+        <v>1.312578945369643e-15</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>34.42829519000485</v>
+        <v>51.58819230660424</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[22.134984907096815, 46.72160547291288]</t>
+          <t>[39.176037725412584, 64.0003468877959]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.083992438033476e-07</v>
+        <v>3.641531520770513e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.083992438033476e-07</v>
+        <v>3.641531520770513e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.415131825941348</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.0126054398958093, 1.8176582119868865]</t>
+          <t>[1.4025528763774249, 1.9811845563178876]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.264255780763506e-11</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.264255780763506e-11</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.34599405497261</v>
+        <v>66.85700964075562</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.12737150612605, 64.56461660381916]</t>
+          <t>[59.036501581777664, 74.67751769973358]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.99747747747778</v>
+        <v>17.89559559559588</v>
       </c>
       <c r="X2" t="n">
-        <v>17.42662662662691</v>
+        <v>16.76792792792819</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.56832832832866</v>
+        <v>19.02326326326357</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8200000000006</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>5.255493607693049e-16</v>
+        <v>5.104473676437501e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>56.50628849184892</v>
+        <v>55.2595575830763</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.97825884729704, 69.0343181364008]</t>
+          <t>[43.10228831430279, 67.4168268518498]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>4.440892098500626e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>2.572395185822273</v>
+        <v>2.597553084950119</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.3459740936716575, 2.7988162779728882]</t>
+          <t>[2.371131992799503, 2.8239741771007356]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>67.64898558371334</v>
+        <v>60.48307424321941</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[61.05051838888696, 74.24745277853972]</t>
+          <t>[53.98815420692615, 66.97799427951267]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.2490490490494</v>
+        <v>15.15153153153188</v>
       </c>
       <c r="X3" t="n">
-        <v>14.31859859859893</v>
+        <v>14.22072072072105</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.17949949949987</v>
+        <v>16.08234234234271</v>
       </c>
     </row>
   </sheetData>
